--- a/PERS_DESAP_NOLOCYLOCPORSEX_Df.xlsx
+++ b/PERS_DESAP_NOLOCYLOCPORSEX_Df.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>83132</v>
+        <v>83133</v>
       </c>
     </row>
     <row r="3">

--- a/PERS_DESAP_NOLOCYLOCPORSEX_Df.xlsx
+++ b/PERS_DESAP_NOLOCYLOCPORSEX_Df.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>83133</v>
+        <v>83137</v>
       </c>
     </row>
     <row r="3">

--- a/PERS_DESAP_NOLOCYLOCPORSEX_Df.xlsx
+++ b/PERS_DESAP_NOLOCYLOCPORSEX_Df.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>83137</v>
+        <v>83177</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26913</v>
+        <v>26873</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
   </sheetData>

--- a/PERS_DESAP_NOLOCYLOCPORSEX_Df.xlsx
+++ b/PERS_DESAP_NOLOCYLOCPORSEX_Df.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>83177</v>
+        <v>85438</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26873</v>
+        <v>26755</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>703</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>
